--- a/ЗАВОДЫ/Черкизово UZ/2025/08,25/28,08,25 Черкизово Ташкент/Ташкент/дв 14,08,25 тшрсч чркзв-2 от Лыгина.xlsx
+++ b/ЗАВОДЫ/Черкизово UZ/2025/08,25/28,08,25 Черкизово Ташкент/Ташкент/дв 14,08,25 тшрсч чркзв-2 от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\14,08,25 Черкизово Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\28,08,25 Черкизово Ташкент\Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9C4573-E102-4ED5-8AD3-4589874F9BD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C494267-3748-443B-A72B-9C01AB3CA618}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5375,7 +5375,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q39" sqref="Q39"/>
+      <selection pane="bottomRight" activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6346,7 +6346,7 @@
         <v>3.2</v>
       </c>
       <c r="AK10" s="1">
-        <f>AI10*R10</f>
+        <f t="shared" ref="AK10:AK33" si="8">AI10*R10</f>
         <v>160</v>
       </c>
       <c r="AL10" s="1"/>
@@ -6409,7 +6409,7 @@
         <v>200</v>
       </c>
       <c r="R11" s="5">
-        <f t="shared" ref="R11:R33" si="8">MROUND(Q11*G11,AJ11)/AI11</f>
+        <f t="shared" ref="R11:R33" si="9">MROUND(Q11*G11,AJ11)/AI11</f>
         <v>126.00000000000001</v>
       </c>
       <c r="S11" s="5">
@@ -6473,7 +6473,7 @@
         <v>3.2</v>
       </c>
       <c r="AK11" s="1">
-        <f>AI11*R11</f>
+        <f t="shared" si="8"/>
         <v>201.60000000000002</v>
       </c>
       <c r="AL11" s="1"/>
@@ -6538,7 +6538,7 @@
         <v>500</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>501</v>
       </c>
       <c r="S12" s="5">
@@ -6600,7 +6600,7 @@
         <v>3</v>
       </c>
       <c r="AK12" s="1">
-        <f>AI12*R12</f>
+        <f t="shared" si="8"/>
         <v>501</v>
       </c>
       <c r="AL12" s="1"/>
@@ -6663,7 +6663,7 @@
         <v>300</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="S13" s="5">
@@ -6725,7 +6725,7 @@
         <v>2.4</v>
       </c>
       <c r="AK13" s="1">
-        <f>AI13*R13</f>
+        <f t="shared" si="8"/>
         <v>120</v>
       </c>
       <c r="AL13" s="1"/>
@@ -6789,7 +6789,7 @@
         <v>200</v>
       </c>
       <c r="R14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>198</v>
       </c>
       <c r="S14" s="5">
@@ -6851,7 +6851,7 @@
         <v>2.4</v>
       </c>
       <c r="AK14" s="1">
-        <f>AI14*R14</f>
+        <f t="shared" si="8"/>
         <v>79.2</v>
       </c>
       <c r="AL14" s="1"/>
@@ -6910,7 +6910,7 @@
         <v>300</v>
       </c>
       <c r="R15" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="S15" s="5"/>
@@ -6972,7 +6972,7 @@
         <v>1.8</v>
       </c>
       <c r="AK15" s="1">
-        <f>AI15*R15</f>
+        <f t="shared" si="8"/>
         <v>90</v>
       </c>
       <c r="AL15" s="1"/>
@@ -7035,7 +7035,7 @@
         <v>250</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>252</v>
       </c>
       <c r="S16" s="5">
@@ -7097,7 +7097,7 @@
         <v>2</v>
       </c>
       <c r="AK16" s="1">
-        <f>AI16*R16</f>
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
       <c r="AL16" s="1"/>
@@ -7160,7 +7160,7 @@
         <v>700</v>
       </c>
       <c r="R17" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>700</v>
       </c>
       <c r="S17" s="5">
@@ -7222,7 +7222,7 @@
         <v>1.8</v>
       </c>
       <c r="AK17" s="1">
-        <f>AI17*R17</f>
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
       <c r="AL17" s="1"/>
@@ -7275,7 +7275,7 @@
       </c>
       <c r="Q18" s="17"/>
       <c r="R18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S18" s="5"/>
@@ -7335,7 +7335,7 @@
         <v>1.8</v>
       </c>
       <c r="AK18" s="1">
-        <f>AI18*R18</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL18" s="1"/>
@@ -7398,7 +7398,7 @@
         <v>150</v>
       </c>
       <c r="R19" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>150</v>
       </c>
       <c r="S19" s="5"/>
@@ -7458,7 +7458,7 @@
         <v>0.9</v>
       </c>
       <c r="AK19" s="1">
-        <f>AI19*R19</f>
+        <f t="shared" si="8"/>
         <v>22.5</v>
       </c>
       <c r="AL19" s="1"/>
@@ -7523,7 +7523,7 @@
         <v>400</v>
       </c>
       <c r="R20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>396</v>
       </c>
       <c r="S20" s="5">
@@ -7585,7 +7585,7 @@
         <v>3.6</v>
       </c>
       <c r="AK20" s="1">
-        <f>AI20*R20</f>
+        <f t="shared" si="8"/>
         <v>118.8</v>
       </c>
       <c r="AL20" s="1"/>
@@ -7648,7 +7648,7 @@
         <v>800</v>
       </c>
       <c r="R21" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>804.00000000000011</v>
       </c>
       <c r="S21" s="5"/>
@@ -7708,7 +7708,7 @@
         <v>3.6</v>
       </c>
       <c r="AK21" s="1">
-        <f>AI21*R21</f>
+        <f t="shared" si="8"/>
         <v>241.20000000000002</v>
       </c>
       <c r="AL21" s="1"/>
@@ -7771,7 +7771,7 @@
         <v>300</v>
       </c>
       <c r="R22" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="S22" s="5"/>
@@ -7831,7 +7831,7 @@
         <v>1.2</v>
       </c>
       <c r="AK22" s="1">
-        <f>AI22*R22</f>
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="AL22" s="1"/>
@@ -7894,7 +7894,7 @@
         <v>100</v>
       </c>
       <c r="R23" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.00000000000001</v>
       </c>
       <c r="S23" s="5"/>
@@ -7954,7 +7954,7 @@
         <v>1.8</v>
       </c>
       <c r="AK23" s="1">
-        <f>AI23*R23</f>
+        <f t="shared" si="8"/>
         <v>30.6</v>
       </c>
       <c r="AL23" s="1"/>
@@ -8013,7 +8013,7 @@
         <v>50</v>
       </c>
       <c r="R24" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>48.000000000000007</v>
       </c>
       <c r="S24" s="5"/>
@@ -8075,7 +8075,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="AK24" s="1">
-        <f>AI24*R24</f>
+        <f t="shared" si="8"/>
         <v>4.8000000000000007</v>
       </c>
       <c r="AL24" s="1"/>
@@ -8136,7 +8136,7 @@
         <v>200</v>
       </c>
       <c r="R25" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>198</v>
       </c>
       <c r="S25" s="5"/>
@@ -8196,7 +8196,7 @@
         <v>1.8</v>
       </c>
       <c r="AK25" s="1">
-        <f>AI25*R25</f>
+        <f t="shared" si="8"/>
         <v>59.4</v>
       </c>
       <c r="AL25" s="1"/>
@@ -8249,7 +8249,7 @@
       </c>
       <c r="Q26" s="17"/>
       <c r="R26" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S26" s="5"/>
@@ -8309,7 +8309,7 @@
         <v>1.02</v>
       </c>
       <c r="AK26" s="1">
-        <f>AI26*R26</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AL26" s="1"/>
@@ -8372,7 +8372,7 @@
         <v>100</v>
       </c>
       <c r="R27" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>102.00000000000001</v>
       </c>
       <c r="S27" s="5"/>
@@ -8432,7 +8432,7 @@
         <v>1.8</v>
       </c>
       <c r="AK27" s="1">
-        <f>AI27*R27</f>
+        <f t="shared" si="8"/>
         <v>30.6</v>
       </c>
       <c r="AL27" s="1"/>
@@ -8495,7 +8495,7 @@
         <v>500</v>
       </c>
       <c r="R28" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>498</v>
       </c>
       <c r="S28" s="5"/>
@@ -8557,7 +8557,7 @@
         <v>1.08</v>
       </c>
       <c r="AK28" s="1">
-        <f>AI28*R28</f>
+        <f t="shared" si="8"/>
         <v>89.64</v>
       </c>
       <c r="AL28" s="1"/>
@@ -8618,7 +8618,7 @@
         <v>350</v>
       </c>
       <c r="R29" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>348</v>
       </c>
       <c r="S29" s="5">
@@ -8680,7 +8680,7 @@
         <v>1.5</v>
       </c>
       <c r="AK29" s="1">
-        <f>AI29*R29</f>
+        <f t="shared" si="8"/>
         <v>87</v>
       </c>
       <c r="AL29" s="1"/>
@@ -8743,7 +8743,7 @@
         <v>100</v>
       </c>
       <c r="R30" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="S30" s="5">
@@ -8805,7 +8805,7 @@
         <v>5</v>
       </c>
       <c r="AK30" s="1">
-        <f>AI30*R30</f>
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
       <c r="AL30" s="1"/>
@@ -8866,7 +8866,7 @@
         <v>600</v>
       </c>
       <c r="R31" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>600</v>
       </c>
       <c r="S31" s="5">
@@ -8928,7 +8928,7 @@
         <v>1.6</v>
       </c>
       <c r="AK31" s="1">
-        <f>AI31*R31</f>
+        <f t="shared" si="8"/>
         <v>240</v>
       </c>
       <c r="AL31" s="1"/>
@@ -8991,7 +8991,7 @@
         <v>300</v>
       </c>
       <c r="R32" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>300</v>
       </c>
       <c r="S32" s="5"/>
@@ -9051,7 +9051,7 @@
         <v>1.8</v>
       </c>
       <c r="AK32" s="1">
-        <f>AI32*R32</f>
+        <f t="shared" si="8"/>
         <v>135</v>
       </c>
       <c r="AL32" s="1"/>
@@ -9114,7 +9114,7 @@
         <v>380</v>
       </c>
       <c r="R33" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>380</v>
       </c>
       <c r="S33" s="5"/>
@@ -9174,7 +9174,7 @@
         <v>1.8</v>
       </c>
       <c r="AK33" s="1">
-        <f>AI33*R33</f>
+        <f t="shared" si="8"/>
         <v>171</v>
       </c>
       <c r="AL33" s="1"/>
